--- a/assets/excel/Data Master.xlsx
+++ b/assets/excel/Data Master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>ID Master</t>
   </si>
@@ -36,15 +36,15 @@
   </si>
   <si>
     <t>AIRTAC</t>
+  </si>
+  <si>
+    <t>ALKITRONIC</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>ALKITRONIC</t>
-  </si>
-  <si>
     <t>AOI</t>
   </si>
   <si>
@@ -55,14 +55,11 @@
     <t>ASCO</t>
   </si>
   <si>
-    <t>DISTRIBUTOR</t>
-  </si>
-  <si>
-    <t>ATOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">DISTRIBUTOR
 </t>
+  </si>
+  <si>
+    <t>ATOS</t>
   </si>
   <si>
     <t>AVENTICS</t>
@@ -887,30 +884,28 @@
         <v>1.2</v>
       </c>
       <c r="E2">
-        <v>1.3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1.5</v>
-      </c>
-      <c r="D3">
-        <v>1.5</v>
-      </c>
-      <c r="E3">
-        <v>1.5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -970,7 +965,7 @@
         <v>1.5</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -978,7 +973,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1.5</v>
@@ -990,7 +985,7 @@
         <v>1.7</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -998,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1.5</v>
@@ -1010,7 +1005,7 @@
         <v>1.5</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1018,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>1.5</v>
@@ -1030,7 +1025,7 @@
         <v>1.5</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1038,7 +1033,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>1.5</v>
@@ -1050,7 +1045,7 @@
         <v>1.5</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1058,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>1.5</v>
@@ -1078,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>1.6</v>
@@ -1090,7 +1085,7 @@
         <v>1.8</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1098,7 +1093,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>1.5</v>
@@ -1110,7 +1105,7 @@
         <v>1.7</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1118,7 +1113,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>1.5</v>
@@ -1130,7 +1125,7 @@
         <v>1.5</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1138,7 +1133,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>1.8</v>
@@ -1150,7 +1145,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1158,19 +1153,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>1.3</v>
+      </c>
+      <c r="D16">
+        <v>1.3</v>
+      </c>
+      <c r="E16">
+        <v>1.3</v>
+      </c>
+      <c r="F16" t="s">
         <v>25</v>
-      </c>
-      <c r="C16">
-        <v>1.3</v>
-      </c>
-      <c r="D16">
-        <v>1.3</v>
-      </c>
-      <c r="E16">
-        <v>1.3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1178,7 +1173,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>1.8</v>
@@ -1190,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1198,7 +1193,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>1.4</v>
@@ -1210,7 +1205,7 @@
         <v>1.6</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1218,7 +1213,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>1.5</v>
@@ -1230,7 +1225,7 @@
         <v>1.7</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1238,7 +1233,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>1.5</v>
@@ -1250,7 +1245,7 @@
         <v>1.5</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1258,7 +1253,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>1.4</v>
@@ -1270,7 +1265,7 @@
         <v>1.6</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1278,7 +1273,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>1.5</v>
@@ -1298,7 +1293,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>1.8</v>
@@ -1310,7 +1305,7 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1318,7 +1313,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>1.5</v>
@@ -1330,7 +1325,7 @@
         <v>1.5</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1338,7 +1333,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>1.2</v>
@@ -1350,7 +1345,7 @@
         <v>1.2</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1358,7 +1353,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>1.6</v>
@@ -1370,7 +1365,7 @@
         <v>1.8</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1378,7 +1373,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>1.6</v>
@@ -1390,7 +1385,7 @@
         <v>1.8</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1398,19 +1393,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>1.3</v>
+      </c>
+      <c r="D28">
+        <v>1.3</v>
+      </c>
+      <c r="E28">
+        <v>1.3</v>
+      </c>
+      <c r="F28" t="s">
         <v>39</v>
-      </c>
-      <c r="C28">
-        <v>1.3</v>
-      </c>
-      <c r="D28">
-        <v>1.3</v>
-      </c>
-      <c r="E28">
-        <v>1.3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1418,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>1.5</v>
@@ -1438,7 +1433,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>1.7</v>
@@ -1450,7 +1445,7 @@
         <v>1.7</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1458,7 +1453,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>1.8</v>
@@ -1470,7 +1465,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1478,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>1.3</v>
@@ -1490,7 +1485,7 @@
         <v>1.3</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1498,7 +1493,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>1.3</v>
@@ -1510,7 +1505,7 @@
         <v>1.3</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1518,7 +1513,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>1.5</v>
@@ -1530,7 +1525,7 @@
         <v>1.5</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1538,7 +1533,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>1.5</v>
@@ -1550,7 +1545,7 @@
         <v>1.7</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1558,7 +1553,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>1.7</v>
@@ -1570,7 +1565,7 @@
         <v>1.9</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1578,7 +1573,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>1.5</v>
@@ -1590,7 +1585,7 @@
         <v>1.5</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1598,7 +1593,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38">
         <v>1.3</v>
@@ -1610,7 +1605,7 @@
         <v>1.3</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1618,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>1.5</v>
@@ -1630,7 +1625,7 @@
         <v>1.7</v>
       </c>
       <c r="F39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1638,7 +1633,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>1.3</v>
@@ -1650,7 +1645,7 @@
         <v>1.3</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1658,7 +1653,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>1.3</v>
@@ -1670,7 +1665,7 @@
         <v>1.3</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1678,7 +1673,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>1.6</v>
@@ -1690,7 +1685,7 @@
         <v>1.8</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1698,7 +1693,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>1.5</v>
@@ -1710,7 +1705,7 @@
         <v>1.5</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1718,7 +1713,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>1.5</v>
@@ -1730,7 +1725,7 @@
         <v>1.5</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1738,7 +1733,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>1.5</v>
@@ -1750,7 +1745,7 @@
         <v>1.5</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1758,7 +1753,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>1.5</v>
@@ -1770,7 +1765,7 @@
         <v>1.5</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1778,7 +1773,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47">
         <v>1.25</v>
@@ -1790,7 +1785,7 @@
         <v>1.25</v>
       </c>
       <c r="F47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1798,7 +1793,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>1.4</v>
@@ -1810,7 +1805,7 @@
         <v>1.6</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1818,7 +1813,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>1.8</v>
@@ -1838,7 +1833,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50">
         <v>1.5</v>
@@ -1858,7 +1853,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>1.8</v>
@@ -1870,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1878,7 +1873,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52">
         <v>1.5</v>
@@ -1898,7 +1893,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53">
         <v>1.5</v>
@@ -1910,7 +1905,7 @@
         <v>1.5</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1918,7 +1913,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54">
         <v>1.5</v>
@@ -1930,7 +1925,7 @@
         <v>1.7</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1938,7 +1933,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55">
         <v>1.5</v>
@@ -1958,7 +1953,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56">
         <v>1.5</v>
@@ -1970,7 +1965,7 @@
         <v>1.5</v>
       </c>
       <c r="F56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1978,7 +1973,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57">
         <v>1.4</v>
@@ -1998,7 +1993,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58">
         <v>1.5</v>
@@ -2010,7 +2005,7 @@
         <v>1.5</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2018,19 +2013,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59">
+        <v>1.3</v>
+      </c>
+      <c r="D59">
+        <v>1.3</v>
+      </c>
+      <c r="E59">
+        <v>1.3</v>
+      </c>
+      <c r="F59" t="s">
         <v>71</v>
-      </c>
-      <c r="C59">
-        <v>1.3</v>
-      </c>
-      <c r="D59">
-        <v>1.3</v>
-      </c>
-      <c r="E59">
-        <v>1.3</v>
-      </c>
-      <c r="F59" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2038,7 +2033,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60">
         <v>1.5</v>
@@ -2050,7 +2045,7 @@
         <v>1.5</v>
       </c>
       <c r="F60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2058,7 +2053,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61">
         <v>1.8</v>
@@ -2070,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2078,7 +2073,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62">
         <v>1.3</v>
@@ -2090,7 +2085,7 @@
         <v>1.3</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2098,7 +2093,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63">
         <v>1.7</v>
@@ -2110,7 +2105,7 @@
         <v>1.9</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2118,7 +2113,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64">
         <v>1.8</v>
@@ -2130,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2138,7 +2133,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65">
         <v>1.3</v>
@@ -2150,7 +2145,7 @@
         <v>1.3</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2158,7 +2153,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66">
         <v>1.8</v>
@@ -2170,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2178,7 +2173,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67">
         <v>1.5</v>
@@ -2190,7 +2185,7 @@
         <v>1.7</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2198,7 +2193,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68">
         <v>1.3</v>
@@ -2210,7 +2205,7 @@
         <v>1.3</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2218,7 +2213,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69">
         <v>1.7</v>
@@ -2230,7 +2225,7 @@
         <v>1.9</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2238,7 +2233,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70">
         <v>1.3</v>
@@ -2250,7 +2245,7 @@
         <v>1.3</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2258,7 +2253,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71">
         <v>1.3</v>
@@ -2270,7 +2265,7 @@
         <v>1.3</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2278,7 +2273,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72">
         <v>1.6</v>
@@ -2290,7 +2285,7 @@
         <v>1.7</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2298,7 +2293,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C73">
         <v>1.5</v>
@@ -2310,7 +2305,7 @@
         <v>1.5</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2318,7 +2313,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74">
         <v>1.3</v>
@@ -2330,7 +2325,7 @@
         <v>1.3</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2338,7 +2333,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75">
         <v>1.8</v>
@@ -2350,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2358,7 +2353,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76">
         <v>1.5</v>
@@ -2370,7 +2365,7 @@
         <v>1.5</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2378,7 +2373,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77">
         <v>1.5</v>
@@ -2398,7 +2393,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78">
         <v>1.5</v>
@@ -2410,7 +2405,7 @@
         <v>1.5</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2418,7 +2413,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79">
         <v>1.5</v>
@@ -2438,7 +2433,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80">
         <v>1.5</v>
@@ -2450,7 +2445,7 @@
         <v>1.5</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2458,7 +2453,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81">
         <v>1.3</v>
@@ -2470,7 +2465,7 @@
         <v>1.3</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2478,7 +2473,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82">
         <v>1.5</v>
@@ -2490,7 +2485,7 @@
         <v>1.5</v>
       </c>
       <c r="F82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2498,7 +2493,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83">
         <v>1.8</v>
@@ -2510,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2518,7 +2513,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84">
         <v>1.5</v>
@@ -2530,7 +2525,7 @@
         <v>1.5</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2538,7 +2533,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85">
         <v>1.5</v>
@@ -2550,7 +2545,7 @@
         <v>1.7</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2558,7 +2553,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86">
         <v>1.4</v>
@@ -2578,7 +2573,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87">
         <v>1.8</v>
@@ -2590,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2598,7 +2593,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88">
         <v>1.5</v>
@@ -2610,7 +2605,7 @@
         <v>1.5</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2618,7 +2613,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89">
         <v>1.5</v>
@@ -2638,7 +2633,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90">
         <v>1.5</v>
@@ -2650,7 +2645,7 @@
         <v>1.5</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2658,7 +2653,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91">
         <v>1.8</v>
@@ -2670,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2678,7 +2673,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92">
         <v>1.3</v>
@@ -2698,7 +2693,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93">
         <v>1.5</v>
@@ -2710,7 +2705,7 @@
         <v>1.7</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2718,7 +2713,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C94">
         <v>1.4</v>
@@ -2730,7 +2725,7 @@
         <v>1.4</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2738,7 +2733,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95">
         <v>1.8</v>
@@ -2750,7 +2745,7 @@
         <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2758,7 +2753,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C96">
         <v>1.8</v>
@@ -2770,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2778,7 +2773,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97">
         <v>1.8</v>
@@ -2790,7 +2785,7 @@
         <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2798,7 +2793,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98">
         <v>1.8</v>
@@ -2810,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2818,7 +2813,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C99">
         <v>1.3</v>
@@ -2838,7 +2833,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C100">
         <v>1.5</v>
@@ -2850,7 +2845,7 @@
         <v>1.5</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2858,7 +2853,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C101">
         <v>1.5</v>
@@ -2870,7 +2865,7 @@
         <v>1.5</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2878,7 +2873,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102">
         <v>1.6</v>
@@ -2890,7 +2885,7 @@
         <v>1.6</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2898,7 +2893,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103">
         <v>1.5</v>
@@ -2910,7 +2905,7 @@
         <v>1.5</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2918,7 +2913,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C104">
         <v>1.4</v>
@@ -2930,7 +2925,7 @@
         <v>1.6</v>
       </c>
       <c r="F104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2938,7 +2933,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105">
         <v>1.8</v>
@@ -2950,7 +2945,7 @@
         <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2958,7 +2953,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C106">
         <v>1.4</v>
@@ -2970,7 +2965,7 @@
         <v>1.6</v>
       </c>
       <c r="F106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2978,7 +2973,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C107">
         <v>1.5</v>
@@ -2990,7 +2985,7 @@
         <v>1.5</v>
       </c>
       <c r="F107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2998,7 +2993,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C108">
         <v>1.4</v>
@@ -3010,7 +3005,7 @@
         <v>1.6</v>
       </c>
       <c r="F108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3018,7 +3013,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109">
         <v>1.5</v>
@@ -3030,7 +3025,7 @@
         <v>1.5</v>
       </c>
       <c r="F109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3038,7 +3033,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C110">
         <v>1.5</v>
@@ -3050,7 +3045,7 @@
         <v>1.5</v>
       </c>
       <c r="F110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3058,7 +3053,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C111">
         <v>1.5</v>
@@ -3070,7 +3065,7 @@
         <v>1.7</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3078,7 +3073,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C112">
         <v>1.7</v>
@@ -3090,7 +3085,7 @@
         <v>1.9</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3098,7 +3093,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C113">
         <v>1.4</v>
@@ -3110,7 +3105,7 @@
         <v>1.6</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3118,7 +3113,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C114">
         <v>1.5</v>
@@ -3130,7 +3125,7 @@
         <v>1.7</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3138,7 +3133,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C115">
         <v>1.5</v>
@@ -3150,7 +3145,7 @@
         <v>1.5</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3158,7 +3153,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C116">
         <v>1.6</v>
@@ -3178,7 +3173,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C117">
         <v>1.8</v>
@@ -3190,7 +3185,7 @@
         <v>2</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3198,7 +3193,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C118">
         <v>1.57</v>
@@ -3210,7 +3205,7 @@
         <v>1.57</v>
       </c>
       <c r="F118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3218,7 +3213,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C119">
         <v>1.5</v>
@@ -3230,7 +3225,7 @@
         <v>1.5</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3238,7 +3233,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C120">
         <v>1.6</v>
@@ -3250,7 +3245,7 @@
         <v>1.8</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3258,7 +3253,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C121">
         <v>1.5</v>
@@ -3278,7 +3273,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122">
         <v>1.8</v>
@@ -3290,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3298,7 +3293,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C123">
         <v>1.6</v>
@@ -3318,7 +3313,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C124">
         <v>1.5</v>
@@ -3330,7 +3325,7 @@
         <v>1.5</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3338,7 +3333,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C125">
         <v>1.5</v>
@@ -3350,7 +3345,7 @@
         <v>1.5</v>
       </c>
       <c r="F125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3358,7 +3353,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C126">
         <v>1.5</v>
@@ -3370,7 +3365,7 @@
         <v>1.5</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3378,7 +3373,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C127">
         <v>1.5</v>
@@ -3390,7 +3385,7 @@
         <v>1.7</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3398,7 +3393,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C128">
         <v>1.5</v>
@@ -3418,7 +3413,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C129">
         <v>1.8</v>
@@ -3430,7 +3425,7 @@
         <v>2</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3438,7 +3433,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C130">
         <v>1.5</v>
@@ -3450,7 +3445,7 @@
         <v>1.7</v>
       </c>
       <c r="F130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3458,7 +3453,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C131">
         <v>1.5</v>
@@ -3470,7 +3465,7 @@
         <v>1.5</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3478,7 +3473,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C132">
         <v>1.5</v>
@@ -3498,7 +3493,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C133">
         <v>1.6</v>
@@ -3510,7 +3505,7 @@
         <v>1.8</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3518,7 +3513,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C134">
         <v>1.7</v>
@@ -3530,7 +3525,7 @@
         <v>1.9</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3538,19 +3533,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>147</v>
+      </c>
+      <c r="C135">
+        <v>1.5</v>
+      </c>
+      <c r="D135">
+        <v>1.5</v>
+      </c>
+      <c r="E135">
+        <v>1.5</v>
+      </c>
+      <c r="F135" t="s">
         <v>148</v>
-      </c>
-      <c r="C135">
-        <v>1.5</v>
-      </c>
-      <c r="D135">
-        <v>1.5</v>
-      </c>
-      <c r="E135">
-        <v>1.5</v>
-      </c>
-      <c r="F135" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3558,7 +3553,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C136">
         <v>1.5</v>
@@ -3570,7 +3565,7 @@
         <v>1.7</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3578,7 +3573,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C137">
         <v>1.3</v>
@@ -3590,7 +3585,7 @@
         <v>1.3</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3598,7 +3593,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C138">
         <v>1.4</v>
@@ -3618,7 +3613,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C139">
         <v>1.4</v>
@@ -3630,7 +3625,7 @@
         <v>1.6</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3638,7 +3633,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C140">
         <v>1.8</v>
@@ -3650,7 +3645,7 @@
         <v>2</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3658,7 +3653,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C141">
         <v>1.5</v>
@@ -3670,7 +3665,7 @@
         <v>1.5</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3678,7 +3673,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C142">
         <v>1.3</v>
@@ -3690,7 +3685,7 @@
         <v>1.3</v>
       </c>
       <c r="F142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3698,7 +3693,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C143">
         <v>1.2</v>
@@ -3710,7 +3705,7 @@
         <v>1.2</v>
       </c>
       <c r="F143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3718,7 +3713,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C144">
         <v>1.5</v>
@@ -3730,7 +3725,7 @@
         <v>1.5</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3738,7 +3733,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C145">
         <v>1.5</v>
@@ -3750,7 +3745,7 @@
         <v>1.5</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3758,7 +3753,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C146">
         <v>1.5</v>
@@ -3770,7 +3765,7 @@
         <v>1.5</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
